--- a/commission_analysis.xlsx
+++ b/commission_analysis.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="3m_500_ETH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="3m_500_BTC" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +437,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>数据集</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>策略+仓位管理</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>策略</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>仓位管理</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>总交易次数</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>总手续费</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>手续费率</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>总收益率</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>净收益率</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>胜率</t>
         </is>
@@ -478,350 +489,464 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ma_cross+固定比例</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>ma_cross</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>固定比例</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.43686784263929</v>
-      </c>
       <c r="E2" t="n">
-        <v>0.007443686784263929</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005969827992118189</v>
+        <v>83.63136184264118</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.001473858792145739</v>
+        <v>0.008363136184264118</v>
       </c>
       <c r="H2" t="n">
-        <v>0.303030303030303</v>
+        <v>0.09037153479079552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.08200839860653139</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ma_cross+全仓</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>ma_cross</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>全仓</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>571.90124877981</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.057190124877981</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05332217340734405</v>
+        <v>622.414426832238</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1105122982853251</v>
+        <v>0.0622414426832238</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3103448275862069</v>
+        <v>-0.007287762023666983</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.06952920470689078</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ma_cross+金字塔</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>ma_cross</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>金字塔</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.42658171870409</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.005842658171870408</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01563842536022603</v>
+        <v>67.34556222478773</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00979576718835562</v>
+        <v>0.006734556222478772</v>
       </c>
       <c r="H4" t="n">
-        <v>0.303030303030303</v>
+        <v>0.1482898391456205</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1415552829231417</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>rsi_signal+固定比例</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>rsi_signal</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>固定比例</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>130</v>
-      </c>
-      <c r="D5" t="n">
-        <v>101.5881848794718</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.01015881848794718</v>
+        <v>107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01560905894704065</v>
+        <v>61.02017816101452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005450240459093467</v>
+        <v>0.006102017816101452</v>
       </c>
       <c r="H5" t="n">
+        <v>0.02806783941024987</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02196582159414842</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rsi_signal+全仓</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>rsi_signal</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>全仓</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>239.9637727803511</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.02399637727803511</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00832930468618615</v>
+        <v>151.6060932592245</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01566707259184896</v>
+        <v>0.01516060932592245</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8333333333333334</v>
+        <v>-0.01224981381853176</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.02741042314445422</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rsi_signal+金字塔</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>rsi_signal</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>金字塔</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>86</v>
-      </c>
-      <c r="D7" t="n">
-        <v>86.17230532115576</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.008617230532115576</v>
+        <v>54</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01770658323275639</v>
+        <v>62.47401463883125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009089352700640809</v>
+        <v>0.006247401463883125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.06795889592405983</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06171149446017671</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bollinger_breakout+固定比例</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>bollinger_breakout</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>固定比例</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>51</v>
-      </c>
-      <c r="D8" t="n">
-        <v>48.420167784483</v>
-      </c>
       <c r="E8" t="n">
-        <v>0.0048420167784483</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00278908275602189</v>
+        <v>63.81000846499609</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.007631099534470189</v>
+        <v>0.006381000846499609</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.06924964944909225</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.06286864860259264</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bollinger_breakout+全仓</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>bollinger_breakout</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>全仓</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>23</v>
-      </c>
-      <c r="D9" t="n">
-        <v>220.6459292146083</v>
-      </c>
       <c r="E9" t="n">
-        <v>0.02206459292146083</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0464178194640881</v>
+        <v>235.6432156968913</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06848241238554892</v>
+        <v>0.02356432156968913</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.03888794840067221</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01532362683098308</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bollinger_breakout+金字塔</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>bollinger_breakout</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>金字塔</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>51</v>
-      </c>
-      <c r="D10" t="n">
-        <v>45.8584255764362</v>
-      </c>
       <c r="E10" t="n">
-        <v>0.00458584255764362</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005762867824905697</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.004009555775153051</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>macd_cross+固定比例</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>macd_cross</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>固定比例</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>82</v>
-      </c>
-      <c r="D11" t="n">
-        <v>90.7391820231756</v>
-      </c>
       <c r="E11" t="n">
-        <v>0.009073918202317561</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002284382920732969</v>
+        <v>107.8606839093187</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.006789535281584592</v>
+        <v>0.01078606839093187</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3170731707317073</v>
+        <v>0.07946771628340649</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.06868164789247462</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>macd_cross+全仓</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>macd_cross</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>全仓</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>72</v>
-      </c>
-      <c r="D12" t="n">
-        <v>689.9333525493257</v>
-      </c>
       <c r="E12" t="n">
-        <v>0.06899333525493258</v>
+        <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06287342623449549</v>
+        <v>776.9791911942175</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1318667614894281</v>
+        <v>0.07769791911942175</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.06583818959680084</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.1435361087162226</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>macd_cross+金字塔</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>macd_cross</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>金字塔</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
@@ -832,86 +957,116 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>momentum+固定比例</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>momentum</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>固定比例</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>538</v>
-      </c>
-      <c r="D14" t="n">
-        <v>436.7082001813452</v>
-      </c>
       <c r="E14" t="n">
-        <v>0.04367082001813452</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.05302572910052513</v>
+        <v>15.31833510282864</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09669654911865966</v>
+        <v>0.001531833510282864</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01659751037344398</v>
+        <v>0.1345214744054943</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1329896408952115</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>momentum+全仓</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>momentum</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>全仓</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>136</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1245.096108179523</v>
-      </c>
       <c r="E15" t="n">
-        <v>0.1245096108179523</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1347161508555608</v>
+        <v>21.5882632626035</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2592257616735131</v>
+        <v>0.00215882632626035</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.1586655019320639</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1565066756058035</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>momentum+金字塔</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>momentum</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>金字塔</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
@@ -922,86 +1077,116 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>mean_reversion+固定比例</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>mean_reversion</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>固定比例</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>112</v>
-      </c>
-      <c r="D17" t="n">
-        <v>49.42118199718681</v>
-      </c>
       <c r="E17" t="n">
-        <v>0.004942118199718681</v>
+        <v>108</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003109677215984993</v>
+        <v>35.79687975980891</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.001832440983733687</v>
+        <v>0.003579687975980891</v>
       </c>
       <c r="H17" t="n">
+        <v>0.006763449889455114</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.003183761913474223</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>mean_reversion+全仓</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>mean_reversion</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>全仓</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>79.75123342823827</v>
-      </c>
       <c r="E18" t="n">
-        <v>0.007975123342823827</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002364022923282573</v>
+        <v>72.26197709467851</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.005611100419541254</v>
+        <v>0.007226197709467851</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5</v>
+        <v>0.03099799616566324</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.02377179845619539</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>mean_reversion+金字塔</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>mean_reversion</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>金字塔</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
@@ -1012,26 +1197,36 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>breakout+固定比例</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>breakout</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>固定比例</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -1042,26 +1237,36 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>breakout+全仓</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>breakout</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>全仓</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
@@ -1072,26 +1277,36 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>breakout+金字塔</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>breakout</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>金字塔</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
@@ -1102,26 +1317,36 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>turtle+固定比例</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>turtle</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>固定比例</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -1132,26 +1357,36 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>turtle+全仓</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>turtle</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>全仓</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
@@ -1162,26 +1397,36 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>turtle+金字塔</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>turtle</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>金字塔</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
@@ -1192,86 +1437,116 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>kdj_signal+固定比例</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>kdj_signal</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>固定比例</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
         <v>159</v>
       </c>
-      <c r="D26" t="n">
-        <v>175.1497744280268</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.01751497744280268</v>
-      </c>
       <c r="F26" t="n">
-        <v>-0.002296736250299546</v>
+        <v>189.7923523775311</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.01981171369310222</v>
+        <v>0.01897923523775311</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4050632911392405</v>
+        <v>0.08243777801430879</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.06345854277655569</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3924050632911392</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kdj_signal+全仓</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>kdj_signal</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>全仓</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>146</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1373.172966387299</v>
-      </c>
       <c r="E27" t="n">
-        <v>0.1373172966387299</v>
+        <v>123</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1052491641331408</v>
+        <v>1232.855651333783</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2425664607718707</v>
+        <v>0.1232855651333783</v>
       </c>
       <c r="H27" t="n">
-        <v>0.410958904109589</v>
+        <v>-0.07561794206990835</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.1989035072032866</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.360655737704918</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>kdj_signal+金字塔</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>kdj_signal</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>金字塔</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
@@ -1282,26 +1557,36 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>kama_cross+固定比例</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>kama_cross</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>固定比例</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
@@ -1312,26 +1597,36 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>kama_cross+全仓</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>kama_cross</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>全仓</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
@@ -1342,26 +1637,1307 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>3m/500/ETH</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>kama_cross+金字塔</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>kama_cross</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>金字塔</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>数据集</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>策略+仓位管理</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>策略</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>仓位管理</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>总交易次数</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总手续费</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>手续费率</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>总收益率</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>净收益率</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>胜率</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ma_cross+固定比例</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>固定比例</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71.20440619636349</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00712044061963635</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.01209674021009159</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.01921718082972794</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ma_cross+全仓</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>全仓</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>52</v>
+      </c>
+      <c r="F3" t="n">
+        <v>502.6761582219588</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05026761582219588</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.07880017710398315</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.129067792926179</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ma_cross+金字塔</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ma_cross</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>金字塔</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>rsi_signal+固定比例</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rsi_signal</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>固定比例</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>90</v>
+      </c>
+      <c r="F5" t="n">
+        <v>77.3096746169559</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.007730967461695591</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.01892315031888284</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.02665411778057843</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.972972972972973</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rsi_signal+全仓</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>rsi_signal</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>全仓</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>144.7722635585924</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01447722635585924</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.04618798813073572</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.06066521448659496</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rsi_signal+金字塔</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>rsi_signal</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>金字塔</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bollinger_breakout+固定比例</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bollinger_breakout</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>固定比例</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>56</v>
+      </c>
+      <c r="F8" t="n">
+        <v>57.92927425552449</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.005792927425552449</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.01806698309544627</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.02385991052099871</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>bollinger_breakout+全仓</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bollinger_breakout</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>全仓</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>197.0370549577965</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01970370549577965</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.04371178127242565</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.0634154867682053</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bollinger_breakout+金字塔</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bollinger_breakout</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>金字塔</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>macd_cross+固定比例</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>macd_cross</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>固定比例</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.30459234584453</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.009430459234584453</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.01482933759906664</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.02425979683365109</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>macd_cross+全仓</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>macd_cross</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>全仓</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>69</v>
+      </c>
+      <c r="F12" t="n">
+        <v>672.4565037258672</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.06724565037258672</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.06462627993064379</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.1318719303032305</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>macd_cross+金字塔</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>macd_cross</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>金字塔</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>momentum+固定比例</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>固定比例</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>momentum+全仓</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>全仓</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>momentum+金字塔</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>金字塔</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>mean_reversion+固定比例</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>mean_reversion</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>固定比例</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>135</v>
+      </c>
+      <c r="F17" t="n">
+        <v>87.1803592578749</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.008718035925787489</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.03534195726766175</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.02662392134187426</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>mean_reversion+全仓</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>mean_reversion</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>全仓</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" t="n">
+        <v>110.7579938950712</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01107579938950712</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.02721149884355036</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01613569945404324</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>mean_reversion+金字塔</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>mean_reversion</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>金字塔</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>breakout+固定比例</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>breakout</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>固定比例</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>breakout+全仓</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>breakout</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>全仓</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>breakout+金字塔</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>breakout</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>金字塔</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>turtle+固定比例</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>turtle</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>固定比例</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>turtle+全仓</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>turtle</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>全仓</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>turtle+金字塔</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>turtle</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>金字塔</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>kdj_signal+固定比例</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>固定比例</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>197</v>
+      </c>
+      <c r="F26" t="n">
+        <v>216.5418727384368</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02165418727384368</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.02640141737708891</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.04805560465093259</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kdj_signal+全仓</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>全仓</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>165</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1492.751924624468</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1492751924624468</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.1726579412171824</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.3219331336796293</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.3170731707317073</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>kdj_signal+金字塔</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>kdj_signal</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>金字塔</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>kama_cross+固定比例</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>kama_cross</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>固定比例</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>kama_cross+全仓</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>kama_cross</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>全仓</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3m/500/BTC</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>kama_cross+金字塔</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>kama_cross</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>金字塔</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
@@ -1372,6 +2948,12 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/commission_analysis.xlsx
+++ b/commission_analysis.xlsx
@@ -494,12 +494,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ma_cross+固定比例</t>
+          <t>均线交叉+固定比例</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ma_cross</t>
+          <t>均线交叉</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>83.63136184264118</v>
+        <v>81.18204775767646</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008363136184264118</v>
+        <v>0.008118204775767645</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09037153479079552</v>
+        <v>0.08320374613279655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08200839860653139</v>
+        <v>0.0750855413570289</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="3">
@@ -534,12 +534,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ma_cross+全仓</t>
+          <t>均线交叉+全仓</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ma_cross</t>
+          <t>均线交叉</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,22 +548,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>622.414426832238</v>
+        <v>552.3503016296181</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0622414426832238</v>
+        <v>0.05523503016296181</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.007287762023666983</v>
+        <v>0.06373260092236342</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06952920470689078</v>
+        <v>0.008497570759401614</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="4">
@@ -574,12 +574,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ma_cross+金字塔</t>
+          <t>均线交叉+金字塔</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ma_cross</t>
+          <t>均线交叉</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>67.34556222478773</v>
+        <v>65.45780491266606</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006734556222478772</v>
+        <v>0.006545780491266607</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1482898391456205</v>
+        <v>0.1360875984182421</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1415552829231417</v>
+        <v>0.1295418179269755</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="5">
@@ -614,12 +614,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rsi_signal+固定比例</t>
+          <t>RSI超买超卖+固定比例</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rsi_signal</t>
+          <t>RSI超买超卖</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -637,10 +637,10 @@
         <v>0.006102017816101452</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02806783941024987</v>
+        <v>0.021424557486718</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02196582159414842</v>
+        <v>0.01532253967061655</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -654,12 +654,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rsi_signal+全仓</t>
+          <t>RSI超买超卖+全仓</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rsi_signal</t>
+          <t>RSI超买超卖</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -677,10 +677,10 @@
         <v>0.01516060932592245</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01224981381853176</v>
+        <v>-0.02049441834248719</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02741042314445422</v>
+        <v>-0.03565502766840964</v>
       </c>
       <c r="J6" t="n">
         <v>0.7142857142857143</v>
@@ -694,12 +694,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rsi_signal+金字塔</t>
+          <t>RSI超买超卖+金字塔</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>rsi_signal</t>
+          <t>RSI超买超卖</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -717,10 +717,10 @@
         <v>0.006247401463883125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06795889592405983</v>
+        <v>0.0612660955733696</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06171149446017671</v>
+        <v>0.05501869410948648</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -734,12 +734,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bollinger_breakout+固定比例</t>
+          <t>布林带突破+固定比例</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>bollinger_breakout</t>
+          <t>布林带突破</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -757,10 +757,10 @@
         <v>0.006381000846499609</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06924964944909225</v>
+        <v>0.06725900553813208</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06286864860259264</v>
+        <v>0.06087800469163247</v>
       </c>
       <c r="J8" t="n">
         <v>0.07407407407407407</v>
@@ -774,12 +774,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bollinger_breakout+全仓</t>
+          <t>布林带突破+全仓</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>bollinger_breakout</t>
+          <t>布林带突破</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bollinger_breakout+金字塔</t>
+          <t>布林带突破+金字塔</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>bollinger_breakout</t>
+          <t>布林带突破</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>macd_cross+固定比例</t>
+          <t>MACD金叉死叉+固定比例</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>macd_cross</t>
+          <t>MACD金叉死叉</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -868,22 +868,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
-        <v>107.8606839093187</v>
+        <v>112.5255024773504</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01078606839093187</v>
+        <v>0.01125255024773504</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07946771628340649</v>
+        <v>0.07354209392416487</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06868164789247462</v>
+        <v>0.06228954367642984</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3191489361702128</v>
       </c>
     </row>
     <row r="12">
@@ -894,12 +894,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>macd_cross+全仓</t>
+          <t>MACD金叉死叉+全仓</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>macd_cross</t>
+          <t>MACD金叉死叉</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -911,19 +911,19 @@
         <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>776.9791911942175</v>
+        <v>773.8946496326025</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07769791911942175</v>
+        <v>0.07738946496326025</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.06583818959680084</v>
+        <v>-0.08874415582147085</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1435361087162226</v>
+        <v>-0.1661336207847311</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="13">
@@ -934,12 +934,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>macd_cross+金字塔</t>
+          <t>MACD金叉死叉+金字塔</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>macd_cross</t>
+          <t>MACD金叉死叉</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>momentum+固定比例</t>
+          <t>动量策略+固定比例</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>动量策略</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -997,10 +997,10 @@
         <v>0.001531833510282864</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1345214744054943</v>
+        <v>0.129687091291033</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1329896408952115</v>
+        <v>0.1281552577807501</v>
       </c>
       <c r="J14" t="n">
         <v>0.3333333333333333</v>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>momentum+全仓</t>
+          <t>动量策略+全仓</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>动量策略</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>momentum+金字塔</t>
+          <t>动量策略+金字塔</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>动量策略</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mean_reversion+固定比例</t>
+          <t>均值回归+固定比例</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>mean_reversion</t>
+          <t>均值回归</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>35.79687975980891</v>
+        <v>35.91794174491623</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003579687975980891</v>
+        <v>0.003591794174491624</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006763449889455114</v>
+        <v>-0.00154799594058004</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003183761913474223</v>
+        <v>-0.005139790115071664</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1134,12 +1134,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mean_reversion+全仓</t>
+          <t>均值回归+全仓</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>mean_reversion</t>
+          <t>均值回归</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1157,10 +1157,10 @@
         <v>0.007226197709467851</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03099799616566324</v>
+        <v>0.02239240857652057</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02377179845619539</v>
+        <v>0.01516621086705272</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1174,12 +1174,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mean_reversion+金字塔</t>
+          <t>均值回归+金字塔</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>mean_reversion</t>
+          <t>均值回归</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>breakout+固定比例</t>
+          <t>突破策略+固定比例</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>breakout</t>
+          <t>突破策略</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1254,12 +1254,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>breakout+全仓</t>
+          <t>突破策略+全仓</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>breakout</t>
+          <t>突破策略</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1294,12 +1294,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>breakout+金字塔</t>
+          <t>突破策略+金字塔</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>breakout</t>
+          <t>突破策略</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>turtle+固定比例</t>
+          <t>海龟法则+固定比例</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>turtle</t>
+          <t>海龟法则</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>turtle+全仓</t>
+          <t>海龟法则+全仓</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>turtle</t>
+          <t>海龟法则</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>turtle+金字塔</t>
+          <t>海龟法则+金字塔</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>turtle</t>
+          <t>海龟法则</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kdj_signal+固定比例</t>
+          <t>KDJ策略+固定比例</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>kdj_signal</t>
+          <t>KDJ策略</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1468,22 +1468,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7923523775311</v>
+        <v>191.0504721452434</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01897923523775311</v>
+        <v>0.01910504721452434</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08243777801430879</v>
+        <v>0.07707296139161153</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06345854277655569</v>
+        <v>0.05796791417708719</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3924050632911392</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="27">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>kdj_signal+全仓</t>
+          <t>KDJ策略+全仓</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>kdj_signal</t>
+          <t>KDJ策略</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1508,22 +1508,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="F27" t="n">
-        <v>1232.855651333783</v>
+        <v>1544.937777883879</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1232855651333783</v>
+        <v>0.1544937777883879</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.07561794206990835</v>
+        <v>-0.04271991572507395</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1989035072032866</v>
+        <v>-0.1972136935134618</v>
       </c>
       <c r="J27" t="n">
-        <v>0.360655737704918</v>
+        <v>0.3866666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>kdj_signal+金字塔</t>
+          <t>KDJ策略+金字塔</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>kdj_signal</t>
+          <t>KDJ策略</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>kama_cross+固定比例</t>
+          <t>KAMA交叉+固定比例</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>kama_cross</t>
+          <t>KAMA交叉</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>kama_cross+全仓</t>
+          <t>KAMA交叉+全仓</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>kama_cross</t>
+          <t>KAMA交叉</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>kama_cross+金字塔</t>
+          <t>KAMA交叉+金字塔</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>kama_cross</t>
+          <t>KAMA交叉</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ma_cross+固定比例</t>
+          <t>均线交叉+固定比例</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ma_cross</t>
+          <t>均线交叉</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1779,22 +1779,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" t="n">
-        <v>71.20440619636349</v>
+        <v>73.26724221582054</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00712044061963635</v>
+        <v>0.007326724221582055</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01209674021009159</v>
+        <v>-0.01541439133590175</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01921718082972794</v>
+        <v>-0.0227411155574838</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="3">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ma_cross+全仓</t>
+          <t>均线交叉+全仓</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ma_cross</t>
+          <t>均线交叉</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1819,22 +1819,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
-        <v>502.6761582219588</v>
+        <v>521.069343040017</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05026761582219588</v>
+        <v>0.0521069343040017</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.07880017710398315</v>
+        <v>-0.08188010048531869</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.129067792926179</v>
+        <v>-0.1339870347893204</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="4">
@@ -1845,12 +1845,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ma_cross+金字塔</t>
+          <t>均线交叉+金字塔</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ma_cross</t>
+          <t>均线交叉</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1885,12 +1885,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rsi_signal+固定比例</t>
+          <t>RSI超买超卖+固定比例</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rsi_signal</t>
+          <t>RSI超买超卖</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1908,10 +1908,10 @@
         <v>0.007730967461695591</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.01892315031888284</v>
+        <v>-0.02058009589232406</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02665411778057843</v>
+        <v>-0.02831106335401965</v>
       </c>
       <c r="J5" t="n">
         <v>0.972972972972973</v>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rsi_signal+全仓</t>
+          <t>RSI超买超卖+全仓</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rsi_signal</t>
+          <t>RSI超买超卖</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1948,10 +1948,10 @@
         <v>0.01447722635585924</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.04618798813073572</v>
+        <v>-0.04806060324453919</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06066521448659496</v>
+        <v>-0.06253782960039843</v>
       </c>
       <c r="J6" t="n">
         <v>0.4285714285714285</v>
@@ -1965,12 +1965,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rsi_signal+金字塔</t>
+          <t>RSI超买超卖+金字塔</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>rsi_signal</t>
+          <t>RSI超买超卖</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bollinger_breakout+固定比例</t>
+          <t>布林带突破+固定比例</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>bollinger_breakout</t>
+          <t>布林带突破</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2019,19 +2019,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" t="n">
-        <v>57.92927425552449</v>
+        <v>57.16548444892481</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005792927425552449</v>
+        <v>0.005716548444892481</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01806698309544627</v>
+        <v>-0.02012023558781093</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02385991052099871</v>
+        <v>-0.02583678403270341</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -2045,12 +2045,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bollinger_breakout+全仓</t>
+          <t>布林带突破+全仓</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>bollinger_breakout</t>
+          <t>布林带突破</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2059,22 +2059,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>197.0370549577965</v>
+        <v>176.4948556277395</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01970370549577965</v>
+        <v>0.01764948556277395</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04371178127242565</v>
+        <v>-0.04690907172871393</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0634154867682053</v>
+        <v>-0.06455855729148788</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="10">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bollinger_breakout+金字塔</t>
+          <t>布林带突破+金字塔</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>bollinger_breakout</t>
+          <t>布林带突破</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2125,12 +2125,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>macd_cross+固定比例</t>
+          <t>MACD金叉死叉+固定比例</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>macd_cross</t>
+          <t>MACD金叉死叉</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2139,22 +2139,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" t="n">
-        <v>94.30459234584453</v>
+        <v>95.39298933094938</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009430459234584453</v>
+        <v>0.009539298933094938</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.01482933759906664</v>
+        <v>-0.01603371941965197</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.02425979683365109</v>
+        <v>-0.02557301835274691</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="12">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>macd_cross+全仓</t>
+          <t>MACD金叉死叉+全仓</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>macd_cross</t>
+          <t>MACD金叉死叉</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2179,22 +2179,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F12" t="n">
-        <v>672.4565037258672</v>
+        <v>568.0450440312234</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06724565037258672</v>
+        <v>0.05680450440312234</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.06462627993064379</v>
+        <v>-0.05519127022976773</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1318719303032305</v>
+        <v>-0.1119957746328901</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="13">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>macd_cross+金字塔</t>
+          <t>MACD金叉死叉+金字塔</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>macd_cross</t>
+          <t>MACD金叉死叉</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>momentum+固定比例</t>
+          <t>动量策略+固定比例</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>动量策略</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>momentum+全仓</t>
+          <t>动量策略+全仓</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>动量策略</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>momentum+金字塔</t>
+          <t>动量策略+金字塔</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>动量策略</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mean_reversion+固定比例</t>
+          <t>均值回归+固定比例</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>mean_reversion</t>
+          <t>均值回归</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2379,19 +2379,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F17" t="n">
-        <v>87.1803592578749</v>
+        <v>87.9497391954589</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008718035925787489</v>
+        <v>0.00879497391954589</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03534195726766175</v>
+        <v>0.03358938120450475</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02662392134187426</v>
+        <v>0.02479440728495887</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mean_reversion+全仓</t>
+          <t>均值回归+全仓</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>mean_reversion</t>
+          <t>均值回归</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2428,10 +2428,10 @@
         <v>0.01107579938950712</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02721149884355036</v>
+        <v>0.02519477882548599</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01613569945404324</v>
+        <v>0.01411897943597887</v>
       </c>
       <c r="J18" t="n">
         <v>0.8</v>
@@ -2445,12 +2445,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mean_reversion+金字塔</t>
+          <t>均值回归+金字塔</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>mean_reversion</t>
+          <t>均值回归</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>breakout+固定比例</t>
+          <t>突破策略+固定比例</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>breakout</t>
+          <t>突破策略</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>breakout+全仓</t>
+          <t>突破策略+全仓</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>breakout</t>
+          <t>突破策略</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2565,12 +2565,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>breakout+金字塔</t>
+          <t>突破策略+金字塔</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>breakout</t>
+          <t>突破策略</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>turtle+固定比例</t>
+          <t>海龟法则+固定比例</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>turtle</t>
+          <t>海龟法则</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>turtle+全仓</t>
+          <t>海龟法则+全仓</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>turtle</t>
+          <t>海龟法则</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>turtle+金字塔</t>
+          <t>海龟法则+金字塔</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>turtle</t>
+          <t>海龟法则</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2725,12 +2725,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kdj_signal+固定比例</t>
+          <t>KDJ策略+固定比例</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>kdj_signal</t>
+          <t>KDJ策略</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2739,22 +2739,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F26" t="n">
-        <v>216.5418727384368</v>
+        <v>217.598597780065</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02165418727384368</v>
+        <v>0.0217598597780065</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.02640141737708891</v>
+        <v>-0.02752615016240161</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.04805560465093259</v>
+        <v>-0.0492860099404081</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2828282828282828</v>
       </c>
     </row>
     <row r="27">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>kdj_signal+全仓</t>
+          <t>KDJ策略+全仓</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>kdj_signal</t>
+          <t>KDJ策略</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2779,22 +2779,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F27" t="n">
-        <v>1492.751924624468</v>
+        <v>1501.020248352443</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1492751924624468</v>
+        <v>0.1501020248352443</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1726579412171824</v>
+        <v>-0.1739944595753424</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.3219331336796293</v>
+        <v>-0.3240964844105867</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3170731707317073</v>
+        <v>0.3132530120481928</v>
       </c>
     </row>
     <row r="28">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>kdj_signal+金字塔</t>
+          <t>KDJ策略+金字塔</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>kdj_signal</t>
+          <t>KDJ策略</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2845,12 +2845,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>kama_cross+固定比例</t>
+          <t>KAMA交叉+固定比例</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>kama_cross</t>
+          <t>KAMA交叉</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>kama_cross+全仓</t>
+          <t>KAMA交叉+全仓</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>kama_cross</t>
+          <t>KAMA交叉</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2925,12 +2925,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>kama_cross+金字塔</t>
+          <t>KAMA交叉+金字塔</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>kama_cross</t>
+          <t>KAMA交叉</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
